--- a/QA.xlsx
+++ b/QA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo.de.gennaro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo.de.gennaro\Desktop\QA\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27619B6E-EDA0-4AF7-A7E4-FEECBC8B1005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD4D99-EB44-4D11-B5A3-DA4E696DF70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
   <si>
     <t>Preconditions</t>
   </si>
@@ -73,17 +73,7 @@
 </t>
   </si>
   <si>
-    <t>the user is redirected to the homepage and the label "Done ! Computer prova has been created" appears on the top of the window under the number of pc labelì
-verify the total number of pc is increased (not happens)</t>
-  </si>
-  <si>
     <t>click on cancel button</t>
-  </si>
-  <si>
-    <t>put 123€prova as computer name
-1960-01-01 as introduced
-1960-02-02 ad Discontinued
-Choose ICM as company</t>
   </si>
   <si>
     <t>put 123€prova as computer name
@@ -95,18 +85,12 @@
     <t>the user is not redirected to the homepage and next to introduced and discontonued appear this label  Failed to decode date : java.time.format.DateTimeParseException: Text '09-10-1989' could not be parsed at index 0</t>
   </si>
   <si>
-    <t>Repeat the same test with 01-01-1999, 1999-13-30, 1999-12-34, abcdef</t>
-  </si>
-  <si>
     <t>put 123€prova as computer name
 1960-05-05 as introduced
 1960-05-05 ad Discontinued
 Choose ICM as company</t>
   </si>
   <si>
-    <t>Repeat the same test with a Discontinued date of 1959-01-01, 1959-06-04, 1959-06-06</t>
-  </si>
-  <si>
     <t>the user  is not redirected to the homepage and has the following error message next to label Discontinued: date is before introduction date</t>
   </si>
   <si>
@@ -141,13 +125,6 @@
   </si>
   <si>
     <t>Test03 - Add a new computer check computer name with number and special characters</t>
-  </si>
-  <si>
-    <t>the user is redirected to the homepage and the label "Done ! Computer prova has been created" appears on the top of the window under the number of pc label
-verify the total number of pc is increased (not happens)</t>
-  </si>
-  <si>
-    <t>Repeat the same test with 01-01-1999, 1999-13-30, 1999-12-34, abcdef as Introduced label</t>
   </si>
   <si>
     <t>Test07 - Add a new computer with empty company</t>
@@ -170,26 +147,12 @@
 All the labels are corretly populated as riported in the row of the pc in the homepage</t>
   </si>
   <si>
-    <t>choose a different company</t>
-  </si>
-  <si>
     <t>the label company is correctly changed</t>
   </si>
   <si>
     <t>click on Save this Computer button</t>
   </si>
   <si>
-    <t xml:space="preserve">the user is redirected to the homepage and the label "Done ! Computer ACE has been updated" appears on the top of the window under the number of pc labelì
-verify the row in the tabel is correctly updated (not happens)
-</t>
-  </si>
-  <si>
-    <t>Repeat the same test for the other three labels
-Computer name
-Introduced
-Discontinued</t>
-  </si>
-  <si>
     <t>click on Delete this computer button</t>
   </si>
   <si>
@@ -200,9 +163,6 @@
   </si>
   <si>
     <t>click on filter by name button</t>
-  </si>
-  <si>
-    <t>A list of all the computers that starts with Amiga is shown</t>
   </si>
   <si>
     <t>fill the label next to filter by name button with a name of a computer that doesn't exist (prova for example)</t>
@@ -214,33 +174,13 @@
 Displaying 1 to 0 of 0 is shown between previous and next button</t>
   </si>
   <si>
-    <t>all the computers are ordered by computer name in descending order</t>
-  </si>
-  <si>
     <t>click again on computer name label</t>
   </si>
   <si>
-    <t>all the computers are ordered by computer name in acending order</t>
-  </si>
-  <si>
-    <t>all the computers are ordered by company in descending order</t>
-  </si>
-  <si>
-    <t>all the computers are ordred by company in acending order
-The first computer shown are the empty ones (in the row the one with "-")</t>
-  </si>
-  <si>
     <t>click on introduced label</t>
   </si>
   <si>
-    <t>all the computers are ordered by introduced date in descending order</t>
-  </si>
-  <si>
     <t>click again on introduced label</t>
-  </si>
-  <si>
-    <t>all the computers are ordred by introduced date in acending order
-The first computer shown are the empty ones (in the row the one with "-")</t>
   </si>
   <si>
     <t>Test11 - Update a computer</t>
@@ -303,6 +243,75 @@
   </si>
   <si>
     <t>Test08 - Add a new computer with empty name (NEGATIVE TEST)</t>
+  </si>
+  <si>
+    <t>the user is redirected to the homepage and the label "Done ! Computer ARM has been created" appears on the top of the window under the number of pc labelì
+verify the total number of pc is increased (not happens)</t>
+  </si>
+  <si>
+    <t>put 123%prova as computer name
+1960-01-01 as introduced
+1960-02-02 ad Discontinued
+Choose ICM as company</t>
+  </si>
+  <si>
+    <t>the user is redirected to the homepage and the label "Done ! Computer 123%prova has been created" appears on the top of the window under the number of pc label
+verify the total number of pc is increased (not happens)</t>
+  </si>
+  <si>
+    <t>Repeat the same test with 01-01-1999, 1999-13-30, 1999-12-34, abcdef as Introduced input</t>
+  </si>
+  <si>
+    <t>Repeat the same test with 01-01-1999, 1999-13-30, 1999-12-34, abcdef as discontinued input</t>
+  </si>
+  <si>
+    <t>Repeat the same test with 1959-01-01, 1959-06-04, 1959-06-06 as Discontinued input</t>
+  </si>
+  <si>
+    <t>a window opens with the following labels:
+Computer name = "MSX"
+Introduced = "1983-01-01"
+Discontinued = "1995-01-01"
+Company = "Zemmix"
+All the labels are corretly populated as riported in the row of the pc in the homepage</t>
+  </si>
+  <si>
+    <t>insert MSX in filter by computer name and click on filter by name button</t>
+  </si>
+  <si>
+    <t>click on Computer name MSX in the table</t>
+  </si>
+  <si>
+    <t>choose Sony as company
+Computer name = MSX2
+Introduced = "1983-02-02"
+Discontinued = "1995-02-02"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user is redirected to the homepage and the label "Done ! Computer MSX2 has been updated" appears on the top of the window under the number of pc labelì
+verify the row in the tabel is correctly updated (not happens)
+</t>
+  </si>
+  <si>
+    <t>A list of all the computers starting with Amiga is shown</t>
+  </si>
+  <si>
+    <t>all the computers are ordered by computer name</t>
+  </si>
+  <si>
+    <t>all the computers are ordered by computer name in reverse order</t>
+  </si>
+  <si>
+    <t>all the computers are ordered by company</t>
+  </si>
+  <si>
+    <t>all the computers are ordred by company in reverse order</t>
+  </si>
+  <si>
+    <t>all the computers are ordered by introduced date</t>
+  </si>
+  <si>
+    <t>all the computers are ordred by introduced date in reverse order</t>
   </si>
 </sst>
 </file>
@@ -318,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -356,6 +371,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -702,7 +718,7 @@
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -726,15 +742,15 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -747,7 +763,7 @@
     </row>
     <row r="16" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
@@ -758,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -767,7 +783,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -780,7 +796,7 @@
     </row>
     <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -791,17 +807,17 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -814,7 +830,7 @@
     </row>
     <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -825,12 +841,12 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -838,7 +854,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -851,7 +867,7 @@
     </row>
     <row r="33" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -862,21 +878,18 @@
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -889,7 +902,7 @@
     </row>
     <row r="39" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>6</v>
@@ -900,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -909,7 +922,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -922,7 +935,7 @@
     </row>
     <row r="44" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>6</v>
@@ -933,12 +946,12 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -951,7 +964,7 @@
     </row>
     <row r="48" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>6</v>
@@ -962,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -971,7 +984,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -984,7 +997,7 @@
     </row>
     <row r="53" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>6</v>
@@ -995,117 +1008,113 @@
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="B57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="B58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="B59" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>37</v>
+      <c r="B59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="B60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="B63" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" t="s">
-        <v>41</v>
+      <c r="A67" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="A75" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1114,85 +1123,93 @@
         <v>47</v>
       </c>
       <c r="C76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B82" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" t="s">
         <v>53</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
-        <v>53</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
